--- a/figures/ecologiesBW.xlsx
+++ b/figures/ecologiesBW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Writing\InfoEcosystem\Information-Ecosystems-and-Ecologies\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Writing\InfoEcosystem\Information-Ecosystems-and-Ecologies\figures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ecosystems!$B$13:$L$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -718,10 +717,7 @@
             <a:pPr algn="ctr">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -729,16 +725,31 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Ecologies</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Google Ngram</a:t>
             </a:r>
           </a:p>
@@ -760,26 +771,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -865,13 +856,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -887,28 +881,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -965,7 +937,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1733,13 +1704,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -1755,28 +1729,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1828,7 +1780,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2582,13 +2533,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr algn="r">
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -2604,28 +2558,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="r">
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2682,7 +2614,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3436,13 +3367,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -3458,28 +3392,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3540,12 +3452,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4313,13 +4220,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -4335,28 +4245,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="18288" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4417,12 +4305,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5152,15 +5035,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="107"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="108"/>
               <c:layout>
@@ -5199,13 +5073,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -5221,28 +5098,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -5294,7 +5149,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6062,13 +5916,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -6084,28 +5941,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -6118,10 +5953,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
@@ -6175,12 +6006,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6947,13 +6773,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -6969,28 +6798,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -7042,7 +6849,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7809,13 +7615,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -7831,28 +7640,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -7904,7 +7691,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8658,13 +8444,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -8680,28 +8469,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -8758,7 +8525,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9526,13 +9292,16 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200">
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
                               <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
@@ -9548,28 +9317,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="18288" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -9626,7 +9373,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10383,7 +10129,17 @@
                     <a:fld id="{D4E8D685-B85B-4B28-B537-57459FA3A3E7}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200" b="1"/>
                       <a:pPr>
-                        <a:defRPr sz="1200" b="1"/>
+                        <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -10398,28 +10154,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -10476,7 +10210,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11184,8 +10917,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="693334672"/>
-        <c:axId val="693332432"/>
+        <c:axId val="833728288"/>
+        <c:axId val="833745600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11264,13 +10997,16 @@
                               </a:solidFill>
                             </a:rPr>
                             <a:pPr>
-                              <a:defRPr sz="1200">
+                              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1">
                                     <a:lumMod val="65000"/>
                                     <a:lumOff val="35000"/>
                                   </a:schemeClr>
                                 </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:defRPr>
                             </a:pPr>
                             <a:t>[SERIES NAME]</a:t>
@@ -11286,28 +11022,6 @@
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
-                    <c:txPr>
-                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr>
-                          <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="65000"/>
-                                <a:lumOff val="35000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
-                      </a:p>
-                    </c:txPr>
                     <c:showLegendKey val="0"/>
                     <c:showVal val="1"/>
                     <c:showCatName val="0"/>
@@ -11364,7 +11078,6 @@
                   <c:showBubbleSize val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -12082,7 +11795,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$A$12</c15:sqref>
@@ -12152,13 +11865,16 @@
                               </a:solidFill>
                             </a:rPr>
                             <a:pPr>
-                              <a:defRPr sz="1200">
+                              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1">
                                     <a:lumMod val="65000"/>
                                     <a:lumOff val="35000"/>
                                   </a:schemeClr>
                                 </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:defRPr>
                             </a:pPr>
                             <a:t>[SERIES NAME]</a:t>
@@ -12174,35 +11890,13 @@
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
-                    <c:txPr>
-                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                        <a:noAutofit/>
-                      </a:bodyPr>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr>
-                          <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="65000"/>
-                                <a:lumOff val="35000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
-                      </a:p>
-                    </c:txPr>
                     <c:showLegendKey val="0"/>
                     <c:showVal val="1"/>
                     <c:showCatName val="0"/>
                     <c:showSerName val="0"/>
                     <c:showPercent val="0"/>
                     <c:showBubbleSize val="0"/>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                         <c15:layout>
                           <c:manualLayout>
@@ -12250,9 +11944,8 @@
                   <c:showSerName val="0"/>
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -12273,7 +11966,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$1:$EB$1</c15:sqref>
@@ -12621,7 +12314,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$12:$EB$12</c15:sqref>
@@ -12968,7 +12661,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="693334672"/>
+        <c:axId val="833728288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13011,7 +12704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693332432"/>
+        <c:crossAx val="833745600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13020,7 +12713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="693332432"/>
+        <c:axId val="833745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13070,7 +12763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693334672"/>
+        <c:crossAx val="833728288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13137,10 +12830,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13148,16 +12838,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Ecologies</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Google Ngram</a:t>
             </a:r>
           </a:p>
@@ -13186,10 +12888,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -13379,7 +13078,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14247,7 +13945,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15101,7 +14798,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15964,7 +15660,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16827,7 +16522,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17689,7 +17383,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -18492,7 +18185,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -19341,7 +19033,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20204,7 +19895,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21054,7 +20744,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -21748,8 +21437,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="693331312"/>
-        <c:axId val="693330192"/>
+        <c:axId val="833936288"/>
+        <c:axId val="833936848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22484,7 +22173,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$A$4</c15:sqref>
@@ -22513,7 +22202,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$1:$EB$1</c15:sqref>
@@ -22861,7 +22550,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$4:$EB$4</c15:sqref>
@@ -23210,7 +22899,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$A$11</c15:sqref>
@@ -23241,7 +22930,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$1:$EB$1</c15:sqref>
@@ -23589,7 +23278,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$11:$EB$11</c15:sqref>
@@ -23938,7 +23627,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$A$12</c15:sqref>
@@ -23969,7 +23658,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$1:$EB$1</c15:sqref>
@@ -24317,7 +24006,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecologies!$V$12:$EB$12</c15:sqref>
@@ -24664,7 +24353,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="693331312"/>
+        <c:axId val="833936288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24707,7 +24396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693330192"/>
+        <c:crossAx val="833936848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24716,7 +24405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="693330192"/>
+        <c:axId val="833936848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24766,7 +24455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693331312"/>
+        <c:crossAx val="833936288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24833,10 +24522,7 @@
             <a:pPr algn="ctr">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -24844,16 +24530,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Ecosystems</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Google Ngram</a:t>
             </a:r>
           </a:p>
@@ -24882,10 +24580,7 @@
           <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -25081,7 +24776,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -25929,7 +25623,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -26683,7 +26376,7 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200" b="0">
+                        <a:defRPr sz="1200">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
                               <a:lumMod val="65000"/>
@@ -27645,7 +27338,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -28361,15 +28053,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="100"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="108"/>
               <c:layout>
@@ -28501,7 +28184,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -29369,7 +29051,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -30085,15 +29766,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="100"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="108"/>
               <c:layout>
@@ -30225,7 +29897,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -31086,7 +30757,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -31942,7 +31612,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -32650,8 +32319,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="94450000"/>
-        <c:axId val="94449440"/>
+        <c:axId val="834049040"/>
+        <c:axId val="834049600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -32830,7 +32499,6 @@
                   <c:showBubbleSize val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -33546,7 +33214,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94450000"/>
+        <c:axId val="834049040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33589,7 +33257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94449440"/>
+        <c:crossAx val="834049600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33598,7 +33266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94449440"/>
+        <c:axId val="834049600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33648,7 +33316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94450000"/>
+        <c:crossAx val="834049040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33715,10 +33383,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -33726,16 +33391,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Ecosystems</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Google Ngram</a:t>
             </a:r>
           </a:p>
@@ -33764,10 +33441,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -33825,15 +33499,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="100"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="108"/>
               <c:layout>
@@ -33972,7 +33637,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -34826,7 +34490,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -35694,7 +35357,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -36410,15 +36072,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="100"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="108"/>
               <c:layout>
@@ -36557,7 +36210,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -37419,7 +37071,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -38255,7 +37906,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -38963,8 +38613,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="696704544"/>
-        <c:axId val="696705104"/>
+        <c:axId val="834226592"/>
+        <c:axId val="834227152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -39785,7 +39435,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$A$5</c15:sqref>
@@ -39886,9 +39536,7 @@
                     <c:showPercent val="0"/>
                     <c:showBubbleSize val="0"/>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:layout/>
-                      </c:ext>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                     </c:extLst>
                   </c:dLbl>
                   <c:dLbl>
@@ -39965,9 +39613,8 @@
                     <c:showSerName val="0"/>
                     <c:showPercent val="0"/>
                     <c:showBubbleSize val="0"/>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:layout/>
                         <c15:dlblFieldTable/>
                         <c15:showDataLabelsRange val="0"/>
                       </c:ext>
@@ -40010,14 +39657,13 @@
                   <c:showBubbleSize val="0"/>
                   <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$1:$EB$1</c15:sqref>
@@ -40365,7 +40011,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$5:$EB$5</c15:sqref>
@@ -40714,7 +40360,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$A$7</c15:sqref>
@@ -40812,10 +40458,8 @@
                     <c:showSerName val="0"/>
                     <c:showPercent val="0"/>
                     <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:layout/>
-                      </c:ext>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                     </c:extLst>
                   </c:dLbl>
                   <c:spPr>
@@ -40853,7 +40497,7 @@
                   <c:showSerName val="0"/>
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -40875,7 +40519,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$1:$EB$1</c15:sqref>
@@ -41223,7 +40867,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$7:$EB$7</c15:sqref>
@@ -41572,7 +41216,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$A$9</c15:sqref>
@@ -41604,15 +41248,6 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:dLbls>
-                  <c:dLbl>
-                    <c:idx val="100"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:layout/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
                   <c:dLbl>
                     <c:idx val="108"/>
                     <c:layout>
@@ -41701,7 +41336,7 @@
                     <c:showSerName val="0"/>
                     <c:showPercent val="0"/>
                     <c:showBubbleSize val="0"/>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                         <c15:layout>
                           <c:manualLayout>
@@ -41749,16 +41384,15 @@
                   <c:showSerName val="0"/>
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$1:$EB$1</c15:sqref>
@@ -42106,7 +41740,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ecosystems!$V$9:$EB$9</c15:sqref>
@@ -42453,7 +42087,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="696704544"/>
+        <c:axId val="834226592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42496,7 +42130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696705104"/>
+        <c:crossAx val="834227152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42505,7 +42139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="696705104"/>
+        <c:axId val="834227152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3000000000000007E-8"/>
@@ -42557,7 +42191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696704544"/>
+        <c:crossAx val="834226592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -42624,10 +42258,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -42635,16 +42266,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Ecology and Ecosystem</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Google NGrams</a:t>
             </a:r>
           </a:p>
@@ -42673,10 +42316,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -43804,7 +43444,6 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -44618,11 +44257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764150336"/>
-        <c:axId val="764149216"/>
+        <c:axId val="834398272"/>
+        <c:axId val="834398832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764150336"/>
+        <c:axId val="834398272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44665,7 +44304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764149216"/>
+        <c:crossAx val="834398832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -44674,7 +44313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764149216"/>
+        <c:axId val="834398832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44724,7 +44363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764150336"/>
+        <c:crossAx val="834398272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44889,46 +44528,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -47032,522 +46631,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -47984,8 +47067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53893,8 +52976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB12"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58234,7 +57317,7 @@
   <dimension ref="A1:EB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/figures/ecologiesBW.xlsx
+++ b/figures/ecologiesBW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Writing\InfoEcosystem\Information-Ecosystems-and-Ecologies\figures\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Writing\InfoEcosystem\Information-Ecosystems-and-Ecologies\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10116,10 +10116,7 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -10127,14 +10124,15 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{D4E8D685-B85B-4B28-B537-57459FA3A3E7}" type="SERIESNAME">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:pPr>
                         <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
@@ -10189,10 +10187,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10917,8 +10912,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="833728288"/>
-        <c:axId val="833745600"/>
+        <c:axId val="662721056"/>
+        <c:axId val="662721616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12661,7 +12656,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="833728288"/>
+        <c:axId val="662721056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12704,7 +12699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833745600"/>
+        <c:crossAx val="662721616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12713,7 +12708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="833745600"/>
+        <c:axId val="662721616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12763,7 +12758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833728288"/>
+        <c:crossAx val="662721056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20638,10 +20633,7 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -20649,9 +20641,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{9493BD75-78BE-48AE-B67C-E1FD4C0F2507}" type="SERIESNAME">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200" b="1"/>
+                        <a:defRPr sz="1200" b="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -20675,10 +20675,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -20723,10 +20720,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -21437,8 +21431,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="833936288"/>
-        <c:axId val="833936848"/>
+        <c:axId val="664467232"/>
+        <c:axId val="664467792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24353,7 +24347,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="833936288"/>
+        <c:axId val="664467232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24396,7 +24390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833936848"/>
+        <c:crossAx val="664467792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24405,7 +24399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="833936848"/>
+        <c:axId val="664467792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24455,7 +24449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833936288"/>
+        <c:crossAx val="664467232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32319,8 +32313,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="834049040"/>
-        <c:axId val="834049600"/>
+        <c:axId val="661690144"/>
+        <c:axId val="661690704"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -33214,7 +33208,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="834049040"/>
+        <c:axId val="661690144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33257,7 +33251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834049600"/>
+        <c:crossAx val="661690704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33266,7 +33260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834049600"/>
+        <c:axId val="661690704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33316,7 +33310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834049040"/>
+        <c:crossAx val="661690144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -37800,10 +37794,7 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -37811,9 +37802,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{569084E5-1CA7-4731-9C72-3249303249E7}" type="SERIESNAME">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="1200" b="1"/>
+                        <a:defRPr sz="1200" b="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -37837,10 +37836,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -37885,10 +37881,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -38613,8 +38606,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="834226592"/>
-        <c:axId val="834227152"/>
+        <c:axId val="665617808"/>
+        <c:axId val="665618368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -42087,7 +42080,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="834226592"/>
+        <c:axId val="665617808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42130,7 +42123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834227152"/>
+        <c:crossAx val="665618368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42139,7 +42132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834227152"/>
+        <c:axId val="665618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3000000000000007E-8"/>
@@ -42191,7 +42184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834226592"/>
+        <c:crossAx val="665617808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44257,11 +44250,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="834398272"/>
-        <c:axId val="834398832"/>
+        <c:axId val="661974608"/>
+        <c:axId val="661975168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="834398272"/>
+        <c:axId val="661974608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44304,7 +44297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834398832"/>
+        <c:crossAx val="661975168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -44313,7 +44306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834398832"/>
+        <c:axId val="661975168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44363,7 +44356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834398272"/>
+        <c:crossAx val="661974608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -47067,8 +47060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52976,8 +52969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
